--- a/Release_02/01_Documents/07_Product Backlog.xlsx
+++ b/Release_02/01_Documents/07_Product Backlog.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22368" windowHeight="9215"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mg80cp4spgpoMroBeFiNsaAQDtVPw=="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
-  <si>
-    <t>PRODUCRT BACKLOG EXAMPLE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+  <si>
+    <t>PRODUCRT BACKLOG</t>
   </si>
   <si>
     <t>ID</t>
@@ -41,6 +39,15 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Thời gian (Tuần)</t>
+  </si>
+  <si>
+    <t>Release plan</t>
   </si>
   <si>
     <t>Visitor</t>
@@ -146,6 +153,18 @@
 cụm rạp, từng phim hoặc từng ngày</t>
   </si>
   <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Tổng thời gian hoàn thành (Tuần)</t>
+  </si>
+  <si>
+    <t>Số người tham gia dự án (thành viên)</t>
+  </si>
+  <si>
+    <t>Chi phí của dự án (VND)</t>
+  </si>
+  <si>
     <t>Product Backlog</t>
   </si>
   <si>
@@ -168,9 +187,6 @@
   </si>
   <si>
     <t>Tôi muốn có hệ thống nâng cấp đúng thời hạn</t>
-  </si>
-  <si>
-    <t>Tôi muốn đối tác sẽ phải bồi thường hợp đồng khi vi phạm hợp đồng</t>
   </si>
   <si>
     <t>Tôi muốn có tài kiệu hướng dẫn triễn khai</t>
@@ -185,184 +201,853 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="7">
-    <border/>
+  <borders count="10">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -552,414 +1237,576 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.0"/>
-    <col customWidth="1" min="2" max="2" width="13.0"/>
-    <col customWidth="1" min="3" max="3" width="39.86"/>
-    <col customWidth="1" min="4" max="4" width="54.57"/>
-    <col customWidth="1" min="5" max="5" width="16.29"/>
-    <col customWidth="1" min="6" max="6" width="12.57"/>
-    <col customWidth="1" min="7" max="7" width="13.86"/>
-    <col customWidth="1" min="8" max="26" width="9.0"/>
+    <col min="1" max="1" width="4" style="15" customWidth="1"/>
+    <col min="2" max="2" width="13" style="15" customWidth="1"/>
+    <col min="3" max="3" width="47" style="15" customWidth="1"/>
+    <col min="4" max="4" width="54.5740740740741" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.287037037037" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.5740740740741" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.8611111111111" style="15" customWidth="1"/>
+    <col min="8" max="8" width="7.55555555555556" style="15" customWidth="1"/>
+    <col min="9" max="9" width="22.1111111111111" style="15" customWidth="1"/>
+    <col min="10" max="10" width="16.2222222222222" style="15" customWidth="1"/>
+    <col min="11" max="27" width="9" style="15" customWidth="1"/>
+    <col min="28" max="16384" width="14.4259259259259" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="22.8" spans="1:10">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="19" customHeight="1" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19">
+        <v>10</v>
+      </c>
+      <c r="I3" s="28">
+        <v>1</v>
+      </c>
+      <c r="J3" s="29">
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="19">
+        <v>5</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="19">
+        <v>15</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="19">
+        <v>15</v>
+      </c>
+      <c r="I6" s="28">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="19">
+        <v>10</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="19">
+        <v>20</v>
+      </c>
+      <c r="I8" s="28">
+        <v>2</v>
+      </c>
+      <c r="J8" s="29">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="19">
+        <v>20</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="19">
+        <v>20</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="19">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="I11" s="28">
+        <v>1</v>
+      </c>
+      <c r="J11" s="29">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="19">
+        <v>15</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="F3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="19">
+        <v>25</v>
+      </c>
+      <c r="I13" s="28">
+        <v>2</v>
+      </c>
+      <c r="J13" s="29">
+        <v>44877</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
+      <c r="B14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="19">
+        <v>25</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    <row r="15" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A15" s="18">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="19">
+        <v>25</v>
+      </c>
+      <c r="I15" s="28">
+        <v>2</v>
+      </c>
+      <c r="J15" s="29">
+        <v>44891</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="19">
+        <v>20</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="19">
+        <v>20</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" s="15" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" s="16" customFormat="1" ht="14.25" customHeight="1" spans="7:9">
+      <c r="G19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="25">
+        <f>SUM(H3:H17)</f>
+        <v>255</v>
+      </c>
+      <c r="I19" s="25">
+        <f>SUM(I3:I17)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="27">
+        <f>I19+Sheet2!E12</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="27">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="27">
+        <f>D21*300000*D22</f>
+        <v>32400000</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
     <row r="24" ht="14.25" customHeight="1"/>
     <row r="25" ht="14.25" customHeight="1"/>
     <row r="26" ht="14.25" customHeight="1"/>
@@ -1933,123 +2780,232 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J17"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" scale="43" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.71"/>
-    <col customWidth="1" min="2" max="2" width="68.86"/>
-    <col customWidth="1" min="3" max="26" width="8.86"/>
+    <col min="1" max="1" width="3.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="12.712962962963" customWidth="1"/>
+    <col min="3" max="3" width="68.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="7.55555555555556" customWidth="1"/>
+    <col min="5" max="5" width="21.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="16.2222222222222" customWidth="1"/>
+    <col min="7" max="28" width="8.86111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="3"/>
+    <row r="1" ht="22.8" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
+    <row r="2" ht="17.4" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="9">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>44912</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="9">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>46</v>
+      <c r="D12" s="14">
+        <f>SUM(D3:D10)</f>
+        <v>80</v>
+      </c>
+      <c r="E12" s="14">
+        <f>SUM(E3:E10)</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1"/>
@@ -3034,15 +3990,18 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="1" scale="92" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>